--- a/Resources/data/statistic_id1265897_global-ethereum--eth--energy-consumption-up-until-january-10-2022.xlsx
+++ b/Resources/data/statistic_id1265897_global-ethereum--eth--energy-consumption-up-until-january-10-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcsar\Class\NFT-Research\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51887219-62CD-484F-B098-960FD3C2101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A98AC6-D931-42F1-8469-9C1987B0BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -431,6 +431,1907 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Global Ethereum energy consumption worldwide </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>from May 2017 to January 10, 2022 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(in terawatt hours)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Digiconomist; February 2017 to January 10, 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated TWh per year</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$6:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>May 2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oct 2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nov 2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dec 2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jan 2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Feb 2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mar 2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apr 2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>May 2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jun 2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jul 2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Aug 2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sep 2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Oct 2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dec 2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jan 2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Feb 2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Mar 2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Apr 2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>May 2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jun 2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Jul 2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Aug 2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sep 2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Oct 2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Nov 2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Dec 2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Jan 2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Feb 2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Mar 2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Apr 2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>May 2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Jun 2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Jul 2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Aug 2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sep 2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Oct 2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Nov 2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Dec 2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Jan 2021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Feb 2021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Mar 2021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Apr 2021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>May 2021</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Jun 2021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Jul 2021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Aug 2021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sep 2021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Oct 2021</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nov 2021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Dec 2021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Jan 01, 2022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Jan 02, 2022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Jan 03, 2022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Jan 04, 2022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Jan 05, 2022</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Jan 06, 2022</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Jan 07, 2022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Jan 08, 2022</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Jan 09, 2022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Jan 10, 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$6:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="#,##0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="#,##0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.71</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.77</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.95</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="#,##0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83.31</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>103.42</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>103.59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>104.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>104.37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>104.62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>105.09</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105.31</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>105.52</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105.72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>105.92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D990-4449-9DE7-3A7F5AAA02E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="873968712"/>
+        <c:axId val="873966088"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Minimum TWh per year</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$6:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>May 2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jun 2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aug 2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sep 2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oct 2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nov 2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dec 2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jan 2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Feb 2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mar 2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apr 2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>May 2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jun 2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jul 2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Aug 2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sep 2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Oct 2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dec 2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jan 2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Feb 2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Mar 2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Apr 2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>May 2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jun 2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Jul 2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Aug 2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sep 2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Oct 2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Nov 2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Dec 2019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Jan 2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Feb 2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Mar 2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Apr 2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>May 2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Jun 2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Jul 2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Aug 2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Sep 2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Oct 2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Nov 2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Dec 2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Jan 2021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Feb 2021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Mar 2021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Apr 2021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>May 2021</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Jun 2021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Jul 2021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Aug 2021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Sep 2021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Oct 2021</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nov 2021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Dec 2021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Jan 01, 2022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Jan 02, 2022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Jan 03, 2022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Jan 04, 2022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Jan 05, 2022</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Jan 06, 2022</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Jan 07, 2022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Jan 08, 2022</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Jan 09, 2022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Jan 10, 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$6:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.68</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.34</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D990-4449-9DE7-3A7F5AAA02E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="873968712"/>
+        <c:axId val="873966088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="873968712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873966088"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="873966088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873968712"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE2694B-2A11-4750-D1A7-A3BE1048BF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2486,11 +4387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
@@ -3242,5 +5145,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/data/statistic_id1265897_global-ethereum--eth--energy-consumption-up-until-january-10-2022.xlsx
+++ b/Resources/data/statistic_id1265897_global-ethereum--eth--energy-consumption-up-until-january-10-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcsar\Class\NFT-Research\Resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A98AC6-D931-42F1-8469-9C1987B0BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E6D48F-CB15-4239-A05A-87D145D1202A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,9 +644,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -655,15 +654,29 @@
             <c:v>Estimated TWh per year</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Data!$B$6:$B$71</c:f>
@@ -1077,27 +1090,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D990-4449-9DE7-3A7F5AAA02E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="873968712"/>
-        <c:axId val="873966088"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1114,7 +1113,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4388,7 +4399,7 @@
   <dimension ref="B3:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
